--- a/teamactivity.xlsx
+++ b/teamactivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3016BCDD-7215-4421-8DA6-2EDCE898A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98919C5D-C973-4BBD-827F-9F80A9436CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B791B48-0E33-4E3A-884E-1AAEEBCEF5C0}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Mario and Luigi</t>
   </si>
@@ -85,6 +86,9 @@
   </si>
   <si>
     <t>who is visionary in the team</t>
+  </si>
+  <si>
+    <t>who is most hardworker in team</t>
   </si>
 </sst>
 </file>
@@ -442,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFD617B-1848-4EAF-8C1F-E932B7DB0763}">
-  <dimension ref="C3:D18"/>
+  <dimension ref="C3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +458,7 @@
     <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:4" ht="15.5" x14ac:dyDescent="0.45">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,6 +583,14 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15.5" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
         <v>1</v>
       </c>
     </row>
